--- a/data/servo_mestre.xlsx
+++ b/data/servo_mestre.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Identifier</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>Fr</t>
+  </si>
+  <si>
+    <t>ButtonNext</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>ButtonPrevious</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>前</t>
   </si>
   <si>
     <t>Resovoir</t>
@@ -528,29 +546,29 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -562,29 +580,29 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -727,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -758,41 +776,41 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -800,29 +818,29 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -1203,10 +1221,10 @@
         <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1233,9 +1251,15 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1261,9 +1285,15 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -28616,6 +28646,62 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="3"/>
+      <c r="O1002" s="3"/>
+      <c r="P1002" s="3"/>
+      <c r="Q1002" s="3"/>
+      <c r="R1002" s="3"/>
+      <c r="S1002" s="3"/>
+      <c r="T1002" s="3"/>
+      <c r="U1002" s="3"/>
+      <c r="V1002" s="3"/>
+      <c r="W1002" s="3"/>
+      <c r="X1002" s="3"/>
+      <c r="Y1002" s="3"/>
+      <c r="Z1002" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/servo_mestre.xlsx
+++ b/data/servo_mestre.xlsx
@@ -547,8 +547,14 @@
         <v>8</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,$B$1,$E$1)"),"próximo")</f>
+        <v>próximo</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,$B$1,$F$1)"),"Prochain")</f>
+        <v>Prochain</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -581,8 +587,14 @@
         <v>11</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3,$B$1,$E$1)"),"Anterior")</f>
+        <v>Anterior</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3,$B$1,$F$1)"),"précédent")</f>
+        <v>précédent</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -615,8 +627,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4,$B$1,$E$1)"),"Fluid resovoir")</f>
+        <v>Fluid resovoir</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4,$B$1,$F$1)"),"fluide Resovoir")</f>
+        <v>fluide Resovoir</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -649,8 +667,14 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5,$B$1,$E$1)"),"El depósito de líquido de frenos está sellada para evitar la contaminación. El líquido se debe examinar periódicamente.")</f>
+        <v>El depósito de líquido de frenos está sellada para evitar la contaminación. El líquido se debe examinar periódicamente.</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5,$B$1,$F$1)"),"Le réservoir de liquide de frein est scellé pour empêcher la contamination. Le fluide nécessaire d'examiner régulièrement.")</f>
+        <v>Le réservoir de liquide de frein est scellé pour empêcher la contamination. Le fluide nécessaire d'examiner régulièrement.</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -683,8 +707,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6,$B$1,$E$1)"),"servofreno")</f>
+        <v>servofreno</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6,$B$1,$F$1)"),"servofrein")</f>
+        <v>servofrein</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -717,8 +747,14 @@
         <v>23</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,$B$1,$E$1)"),"El servofreno de vacío utiliza motor para ayudar a aplicar los frenos.")</f>
+        <v>El servofreno de vacío utiliza motor para ayudar a aplicar los frenos.</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,$B$1,$F$1)"),"Le servofrein utilise la dépression du moteur pour vous aider à appliquer les freins.")</f>
+        <v>Le servofrein utilise la dépression du moteur pour vous aider à appliquer les freins.</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -751,8 +787,14 @@
         <v>26</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8,$B$1,$E$1)"),"Cilindro maestro")</f>
+        <v>Cilindro maestro</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8,$B$1,$F$1)"),"maître-cylindre")</f>
+        <v>maître-cylindre</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -785,8 +827,14 @@
         <v>29</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9,$B$1,$E$1)"),"Este es un cilindro maestro en tándem. Cuenta con 2 pistones, muelles de retorno, y los puertos que gestionan el flujo de fluido.")</f>
+        <v>Este es un cilindro maestro en tándem. Cuenta con 2 pistones, muelles de retorno, y los puertos que gestionan el flujo de fluido.</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9,$B$1,$F$1)"),"Ceci est un maître-cylindre tandem. Il dispose de 2 pistons, ressorts de rappel et les ports qui gèrent l'écoulement du fluide.")</f>
+        <v>Ceci est un maître-cylindre tandem. Il dispose de 2 pistons, ressorts de rappel et les ports qui gèrent l'écoulement du fluide.</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -819,8 +867,14 @@
         <v>31</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10,$B$1,$E$1)"),"Varilla de empuje")</f>
+        <v>Varilla de empuje</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10,$B$1,$F$1)"),"Poussoir")</f>
+        <v>Poussoir</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -853,8 +907,14 @@
         <v>34</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11,$B$1,$E$1)"),"Cuando se presiona el pedal del freno, se mueve hacia delante la varilla de empuje en el cilindro maestro.")</f>
+        <v>Cuando se presiona el pedal del freno, se mueve hacia delante la varilla de empuje en el cilindro maestro.</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11,$B$1,$F$1)"),"Lorsque vous appuyez sur la pédale de frein, il se déplace vers l'avant pushrod dans le maître-cylindre.")</f>
+        <v>Lorsque vous appuyez sur la pédale de frein, il se déplace vers l'avant pushrod dans le maître-cylindre.</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -887,8 +947,14 @@
         <v>37</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12,$B$1,$E$1)"),"Cámara de presión")</f>
+        <v>Cámara de presión</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12,$B$1,$F$1)"),"Chambre de pression")</f>
+        <v>Chambre de pression</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -921,8 +987,14 @@
         <v>40</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13,$B$1,$E$1)"),"Hay una cámara de presión llena de fluido en frente de cada pistón.")</f>
+        <v>Hay una cámara de presión llena de fluido en frente de cada pistón.</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13,$B$1,$F$1)"),"Il y a une chambre de pression remplie de liquide en face de chaque piston.")</f>
+        <v>Il y a une chambre de pression remplie de liquide en face de chaque piston.</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -955,8 +1027,14 @@
         <v>43</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14,$B$1,$E$1)"),"El pistón secundario")</f>
+        <v>El pistón secundario</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14,$B$1,$F$1)"),"piston secondaire")</f>
+        <v>piston secondaire</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -989,8 +1067,14 @@
         <v>46</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15,$B$1,$E$1)"),"El pistón secundario sólo empuja el aceite a la mitad del circuito")</f>
+        <v>El pistón secundario sólo empuja el aceite a la mitad del circuito</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15,$B$1,$F$1)"),"Le piston secondaire pousse uniquement de l'huile à la moitié du circuit")</f>
+        <v>Le piston secondaire pousse uniquement de l'huile à la moitié du circuit</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1023,8 +1107,14 @@
         <v>49</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16,$B$1,$E$1)"),"pistón primaria")</f>
+        <v>pistón primaria</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16,$B$1,$F$1)"),"piston primaire")</f>
+        <v>piston primaire</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1057,8 +1147,14 @@
         <v>52</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17,$B$1,$E$1)"),"El pistón primario empuja el aceite a la mitad del circuito de freno y el pistón secundario.")</f>
+        <v>El pistón primario empuja el aceite a la mitad del circuito de freno y el pistón secundario.</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17,$B$1,$F$1)"),"Le piston primaire pousse l'huile à la moitié du circuit de freinage et le piston secondaire.")</f>
+        <v>Le piston primaire pousse l'huile à la moitié du circuit de freinage et le piston secondaire.</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1091,8 +1187,14 @@
         <v>55</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18,$B$1,$E$1)"),"Puerto de ventilación")</f>
+        <v>Puerto de ventilación</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18,$B$1,$F$1)"),"Port Vent")</f>
+        <v>Port Vent</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1125,8 +1227,14 @@
         <v>58</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19,$B$1,$E$1)"),"Fluido desde el depósito se llena el circuito de frenado a través de la lumbrera de ventilación. También permite que el líquido se expanda en el depósito cuando se calienta")</f>
+        <v>Fluido desde el depósito se llena el circuito de frenado a través de la lumbrera de ventilación. También permite que el líquido se expanda en el depósito cuando se calienta</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19,$B$1,$F$1)"),"Le fluide provenant du réservoir remplit le circuit de freinage par l'orifice d'évent. Il permet également au fluide de se développer dans le réservoir quand il fait chaud")</f>
+        <v>Le fluide provenant du réservoir remplit le circuit de freinage par l'orifice d'évent. Il permet également au fluide de se développer dans le réservoir quand il fait chaud</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1159,8 +1267,14 @@
         <v>61</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20,$B$1,$E$1)"),"orificio de relleno")</f>
+        <v>orificio de relleno</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20,$B$1,$F$1)"),"régénératrice Port")</f>
+        <v>régénératrice Port</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1193,8 +1307,14 @@
         <v>64</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21,$B$1,$E$1)"),"El orificio de relleno mantiene el volumen detrás del pistón llena de líquido de freno a medida que avanza hacia adelante mientras el frenado.")</f>
+        <v>El orificio de relleno mantiene el volumen detrás del pistón llena de líquido de freno a medida que avanza hacia adelante mientras el frenado.</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21,$B$1,$F$1)"),"L'orifice de réapprovisionnement maintient le volume derrière le piston rempli de liquide de frein en se déplaçant vers l'avant lors du freinage.")</f>
+        <v>L'orifice de réapprovisionnement maintient le volume derrière le piston rempli de liquide de frein en se déplaçant vers l'avant lors du freinage.</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1227,8 +1347,14 @@
         <v>67</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22,$B$1,$E$1)"),"Muelle de retorno primaria")</f>
+        <v>Muelle de retorno primaria</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22,$B$1,$F$1)"),"Primaire ressort de rappel")</f>
+        <v>Primaire ressort de rappel</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1261,8 +1387,14 @@
         <v>70</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23,$B$1,$E$1)"),"Muelle de retorno secundario")</f>
+        <v>Muelle de retorno secundario</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23,$B$1,$F$1)"),"Secondaire ressort de rappel")</f>
+        <v>Secondaire ressort de rappel</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1295,8 +1427,14 @@
         <v>72</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24,$B$1,$E$1)"),"Sello")</f>
+        <v>Sello</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24,$B$1,$F$1)"),"Joint")</f>
+        <v>Joint</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
